--- a/data/trans_dic/P16B01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,32%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>73,42; 89,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>78,2; 91,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>70,78; 90,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>66,73; 85,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>73,42; 88,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>57,4; 81,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>73,4; 85,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>78,66; 88,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>67,83; 84,13</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,51%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>59,04; 78,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>55,9; 71,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>45,09; 62,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>71,15; 87,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>62,52; 76,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>56,68; 72,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>67,1; 80,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>61,76; 72,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>54,15; 64,98</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,83%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>51,97; 82,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>30,28; 65,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>35,87; 68,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>38,2; 67,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>37,48; 69,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>46,21; 76,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>48,13; 70,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>36,34; 61,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>46,55; 68,61</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,33%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>69,05; 81,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>63,79; 75,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>53,79; 66,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>66,96; 78,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>66,36; 76,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>59,97; 71,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>69,95; 78,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>66,76; 74,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>58,98; 67,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,42; 89,99</t>
+          <t>73,9; 89,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,2; 91,79</t>
+          <t>77,41; 91,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,78; 90,57</t>
+          <t>70,76; 91,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>66,73; 85,12</t>
+          <t>66,49; 85,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,42; 88,88</t>
+          <t>73,56; 88,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,4; 81,58</t>
+          <t>58,22; 81,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,4; 85,79</t>
+          <t>72,63; 85,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>78,66; 88,35</t>
+          <t>78,41; 88,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,83; 84,13</t>
+          <t>68,01; 83,4</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,04; 78,92</t>
+          <t>60,48; 79,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,9; 71,88</t>
+          <t>56,91; 72,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,09; 62,07</t>
+          <t>45,04; 61,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>71,15; 87,55</t>
+          <t>70,18; 87,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,52; 76,83</t>
+          <t>61,54; 76,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,68; 72,17</t>
+          <t>57,98; 72,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,1; 80,62</t>
+          <t>68,2; 80,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,76; 72,53</t>
+          <t>61,9; 72,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,15; 64,98</t>
+          <t>53,72; 64,88</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,97; 82,3</t>
+          <t>50,85; 80,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,28; 65,06</t>
+          <t>28,79; 64,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,87; 68,15</t>
+          <t>35,79; 67,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,2; 67,62</t>
+          <t>38,86; 69,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,48; 69,89</t>
+          <t>37,36; 69,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,21; 76,95</t>
+          <t>46,64; 77,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,13; 70,71</t>
+          <t>49,4; 70,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,34; 61,17</t>
+          <t>37,26; 62,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,55; 68,61</t>
+          <t>47,5; 69,06</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>69,05; 81,13</t>
+          <t>69,52; 80,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,79; 75,1</t>
+          <t>63,36; 75,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,79; 66,55</t>
+          <t>53,66; 66,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,96; 78,9</t>
+          <t>66,73; 79,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,36; 76,65</t>
+          <t>66,29; 76,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,97; 71,22</t>
+          <t>60,15; 72,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,95; 78,06</t>
+          <t>70,04; 77,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>66,76; 74,33</t>
+          <t>66,69; 74,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,98; 67,43</t>
+          <t>58,67; 67,39</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el catarro fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78170</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>94477</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>51289</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>58924</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>84966</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49450</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>137093</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>179442</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>100739</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>69822; 84647</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>85151; 100739</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43672; 56459</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>51054; 65609</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>76220; 91780</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40924; 57481</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>124381; 146189</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>167496; 188813</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>89771; 110083</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67977</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>107244</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>83082</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>75170</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>108623</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>113568</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>143146</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>215867</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>196650</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>58562; 76597</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>94337; 120511</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70247; 95874</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66515; 82680</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>95708; 119312</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>101179; 127232</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>130674; 154524</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>198865; 232194</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>177530; 214425</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24277</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21205</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20337</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23909</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19007</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27016</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>48186</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40212</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>47353</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18014; 28597</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13059; 29128</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14085; 26735</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17324; 30894</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13380; 24805</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19834; 33085</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39519; 56732</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30250; 50643</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38893; 56547</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>170424</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>222927</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>154709</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>158002</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>212595</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>190033</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>328425</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>435522</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>344742</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>157612; 183090</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>203461; 240909</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>137942; 170266</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>144232; 170951</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>195530; 226417</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>172815; 207388</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>310172; 344439</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>410887; 458392</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>319357; 366843</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>